--- a/4. 기획/이석한_프로덕트백로그_피드백.xlsx
+++ b/4. 기획/이석한_프로덕트백로그_피드백.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="36" windowWidth="25752" windowHeight="11592" tabRatio="590"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>번호</t>
   </si>
@@ -80,12 +81,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 관통 시나리오 테스트</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -96,12 +94,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>penAPI 사전 검증</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -112,8 +107,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 시나리오 </t>
     </r>
@@ -125,7 +118,6 @@
       </rPr>
       <t>테스팅</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -136,80 +128,390 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 랭킹</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>데이터 오류 입력 방지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve"> 관통 시나리오 테스트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>penAPI 사전 검증</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>실시간 검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve"> 랭킹</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>최종 관통</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve"> 시나리오 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>테스팅</t>
+    </r>
+  </si>
+  <si>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>검토자</t>
+  </si>
+  <si>
+    <t>이석한</t>
+  </si>
+  <si>
+    <t>이석한 프로덕트 백로그</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-    </font>
-    <font>
-      <sz val="8"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.150000"/>
+        <bgColor theme="0" tint="-0.150000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -224,7 +526,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -237,7 +541,9 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -250,7 +556,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -261,21 +569,361 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,9 +951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,28 +960,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="5" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="3" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="4" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="7" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -602,314 +1313,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="2" max="2" width="61.796875" customWidth="1"/>
+    <col min="2" max="2" width="61.75500107" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1">
+      <c r="B1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="17.250000">
+      <c r="B2" s="4"/>
+      <c r="C2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" s="4" customFormat="1"/>
+    <row r="5" spans="1:5" s="4" customFormat="1">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+    <row r="6" spans="1:5" s="4" customFormat="1">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+    <row r="7" spans="1:5" s="4" customFormat="1">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
+    <row r="8" spans="1:5" s="4" customFormat="1">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1">
+      <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="16.500000" customHeight="1">
+      <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D13" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3">
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="17.250000" customHeight="1">
+      <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1">
       <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="12.750000" customHeight="1">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="9">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1">
       <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1">
+      <c r="A19" s="2">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1">
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="9">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="8"/>
     </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C19"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="C10:C11"/>
+  <mergeCells count="6">
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D22:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>